--- a/RNN_python/output_data_test/anom_data15.xlsx
+++ b/RNN_python/output_data_test/anom_data15.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43154</v>
+        <v>43115</v>
       </c>
       <c r="D2" t="n">
-        <v>13.16613019705891</v>
+        <v>-4.712822008960018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43154.04166666666</v>
+        <v>43115.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>21.70480764823824</v>
+        <v>27.88666942645295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43154.08333333334</v>
+        <v>43115.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>27.07223942690781</v>
+        <v>10.35533996443738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43154.125</v>
+        <v>43115.125</v>
       </c>
       <c r="D5" t="n">
-        <v>32.35340928714463</v>
+        <v>4.908357149848754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43154.16666666666</v>
+        <v>43115.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>35.60095883044804</v>
+        <v>4.480305630762118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43154.20833333334</v>
+        <v>43115.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>35.39864023279871</v>
+        <v>9.448405588741835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43154.25</v>
+        <v>43115.25</v>
       </c>
       <c r="D8" t="n">
-        <v>67.67381926199576</v>
+        <v>19.64347107529085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43154.29166666666</v>
+        <v>43115.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>353.5162074123037</v>
+        <v>280.9329918892811</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43154.33333333334</v>
+        <v>43115.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>398.7111550218018</v>
+        <v>422.2973838325063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43154.375</v>
+        <v>43115.375</v>
       </c>
       <c r="D11" t="n">
-        <v>413.0838724325228</v>
+        <v>439.1507922797891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43154.41666666666</v>
+        <v>43115.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>377.2285856419663</v>
+        <v>363.5905449519257</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43154.45833333334</v>
+        <v>43115.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>320.9274424949637</v>
+        <v>284.694686570518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43154.5</v>
+        <v>43115.5</v>
       </c>
       <c r="D14" t="n">
-        <v>275.6102728605451</v>
+        <v>262.7329483329827</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43154.54166666666</v>
+        <v>43115.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>225.0457236940611</v>
+        <v>209.200574449856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43154.58333333334</v>
+        <v>43115.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>176.8784091172498</v>
+        <v>156.3448345453497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43154.625</v>
+        <v>43115.625</v>
       </c>
       <c r="D17" t="n">
-        <v>139.2878608611509</v>
+        <v>111.8658372646767</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43154.66666666666</v>
+        <v>43115.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>109.6365513103167</v>
+        <v>77.61969952759051</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43154.70833333334</v>
+        <v>43115.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>86.01055407228721</v>
+        <v>52.595469841862</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43154.75</v>
+        <v>43115.75</v>
       </c>
       <c r="D20" t="n">
-        <v>67.25938278332507</v>
+        <v>34.59155653274381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43154.79166666666</v>
+        <v>43115.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>52.54730675177588</v>
+        <v>21.91859951304026</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43154.83333333334</v>
+        <v>43115.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>41.20755133696052</v>
+        <v>13.4663829831139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43154.875</v>
+        <v>43115.875</v>
       </c>
       <c r="D23" t="n">
-        <v>32.71832013473148</v>
+        <v>8.526958014016444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43154.91666666666</v>
+        <v>43115.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>26.6972294078889</v>
+        <v>6.646216096151207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43154.95833333334</v>
+        <v>43115.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>22.89169402778668</v>
+        <v>7.518765083830459</v>
       </c>
     </row>
   </sheetData>
@@ -709,11 +709,11 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43154</v>
+        <v>43115</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
@@ -723,157 +723,157 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43154.04166666666</v>
+        <v>43115.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43154.08333333334</v>
+        <v>43115.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43154.125</v>
+        <v>43115.125</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43154.16666666666</v>
+        <v>43115.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43154.20833333334</v>
+        <v>43115.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43154.25</v>
+        <v>43115.25</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43154.29166666666</v>
+        <v>43115.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43154.33333333334</v>
+        <v>43115.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>446</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43154.375</v>
+        <v>43115.375</v>
       </c>
       <c r="D11" t="n">
-        <v>395</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43154.41666666666</v>
+        <v>43115.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>386</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43154.45833333334</v>
+        <v>43115.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>227</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43154.5</v>
+        <v>43115.5</v>
       </c>
       <c r="D14" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43154.54166666666</v>
+        <v>43115.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>206</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43154.58333333334</v>
+        <v>43115.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43154.625</v>
+        <v>43115.625</v>
       </c>
       <c r="D17" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43154.66666666666</v>
+        <v>43115.66666666666</v>
       </c>
       <c r="D18" t="n">
         <v>104</v>
@@ -883,27 +883,27 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43154.70833333334</v>
+        <v>43115.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43154.75</v>
+        <v>43115.75</v>
       </c>
       <c r="D20" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43154.79166666666</v>
+        <v>43115.79166666666</v>
       </c>
       <c r="D21" t="n">
         <v>37</v>
@@ -913,40 +913,40 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43154.83333333334</v>
+        <v>43115.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43154.875</v>
+        <v>43115.875</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43154.91666666666</v>
+        <v>43115.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43154.95833333334</v>
+        <v>43115.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data15.xlsx
+++ b/RNN_python/output_data_test/anom_data15.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43115</v>
+        <v>43238</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.712822008960018</v>
+        <v>23.04471791836826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43115.04166666666</v>
+        <v>43238.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>27.88666942645295</v>
+        <v>27.51271811145571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43115.08333333334</v>
+        <v>43238.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>10.35533996443738</v>
+        <v>22.9337039426935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43115.125</v>
+        <v>43238.125</v>
       </c>
       <c r="D5" t="n">
-        <v>4.908357149848754</v>
+        <v>14.15321223417742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43115.16666666666</v>
+        <v>43238.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>4.480305630762118</v>
+        <v>8.79142851601955e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43115.20833333334</v>
+        <v>43238.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>9.448405588741835</v>
+        <v>-21.66501412655536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43115.25</v>
+        <v>43238.25</v>
       </c>
       <c r="D8" t="n">
-        <v>19.64347107529085</v>
+        <v>-66.01219254146979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43115.29166666666</v>
+        <v>43238.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>280.9329918892811</v>
+        <v>192.3842762130772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43115.33333333334</v>
+        <v>43238.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>422.2973838325063</v>
+        <v>229.0123533267098</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43115.375</v>
+        <v>43238.375</v>
       </c>
       <c r="D11" t="n">
-        <v>439.1507922797891</v>
+        <v>284.2130240148731</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43115.41666666666</v>
+        <v>43238.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>363.5905449519257</v>
+        <v>252.8207318762768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43115.45833333334</v>
+        <v>43238.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>284.694686570518</v>
+        <v>282.1879865198228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43115.5</v>
+        <v>43238.5</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7329483329827</v>
+        <v>269.7299766779523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43115.54166666666</v>
+        <v>43238.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>209.200574449856</v>
+        <v>251.674597976161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43115.58333333334</v>
+        <v>43238.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>156.3448345453497</v>
+        <v>195.2663063051087</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43115.625</v>
+        <v>43238.625</v>
       </c>
       <c r="D17" t="n">
-        <v>111.8658372646767</v>
+        <v>150.8889478493531</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43115.66666666666</v>
+        <v>43238.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>77.61969952759051</v>
+        <v>108.7230560206552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43115.70833333334</v>
+        <v>43238.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>52.595469841862</v>
+        <v>82.42786001548498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43115.75</v>
+        <v>43238.75</v>
       </c>
       <c r="D20" t="n">
-        <v>34.59155653274381</v>
+        <v>60.35886786663846</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43115.79166666666</v>
+        <v>43238.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>21.91859951304026</v>
+        <v>46.2167645690421</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43115.83333333334</v>
+        <v>43238.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>13.4663829831139</v>
+        <v>35.12352247070045</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43115.875</v>
+        <v>43238.875</v>
       </c>
       <c r="D23" t="n">
-        <v>8.526958014016444</v>
+        <v>27.44078224337466</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43115.91666666666</v>
+        <v>43238.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6.646216096151207</v>
+        <v>21.5733874166516</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43115.95833333334</v>
+        <v>43238.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7.518765083830459</v>
+        <v>90.93672480409882</v>
       </c>
     </row>
   </sheetData>
@@ -709,61 +709,61 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43115</v>
+        <v>43238</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43115.04166666666</v>
+        <v>43238.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43115.08333333334</v>
+        <v>43238.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43115.125</v>
+        <v>43238.125</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43115.16666666666</v>
+        <v>43238.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43115.20833333334</v>
+        <v>43238.20833333334</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -773,180 +773,180 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43115.25</v>
+        <v>43238.25</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43115.29166666666</v>
+        <v>43238.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43115.33333333334</v>
+        <v>43238.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>407</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43115.375</v>
+        <v>43238.375</v>
       </c>
       <c r="D11" t="n">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43115.41666666666</v>
+        <v>43238.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>483</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43115.45833333334</v>
+        <v>43238.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>274</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43115.5</v>
+        <v>43238.5</v>
       </c>
       <c r="D14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43115.54166666666</v>
+        <v>43238.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>306</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43115.58333333334</v>
+        <v>43238.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43115.625</v>
+        <v>43238.625</v>
       </c>
       <c r="D17" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43115.66666666666</v>
+        <v>43238.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43115.70833333334</v>
+        <v>43238.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43115.75</v>
+        <v>43238.75</v>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43115.79166666666</v>
+        <v>43238.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43115.83333333334</v>
+        <v>43238.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43115.875</v>
+        <v>43238.875</v>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43115.91666666666</v>
+        <v>43238.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43115.95833333334</v>
+        <v>43238.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
